--- a/updatebfm/BFMs.xlsx
+++ b/updatebfm/BFMs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.1.9.200\dmd\Backup\Ecommerce Dev\TMDT\AEm\Dx\Text\22\12\1.updateBFm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\GitHub\express-hello-world\updatebfm\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1DABA6-B1B1-4239-9E05-538A98313843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9495" windowHeight="10035"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,12 +43,6 @@
     <t>Brandfare</t>
   </si>
   <si>
-    <t>brandComparison\\value\\cancelOrRefund\\BF2</t>
-  </si>
-  <si>
-    <t>brandComparison\\value\\cancelOrRefund\\BC2</t>
-  </si>
-  <si>
     <t>BC2</t>
   </si>
   <si>
@@ -55,40 +50,46 @@
 </t>
   </si>
   <si>
-    <t>brandComparison\\value\\cancelOrRefund\\DF2</t>
-  </si>
-  <si>
     <t>DF2</t>
   </si>
   <si>
     <t>(v)</t>
   </si>
   <si>
-    <t>brandComparison\\value\\cancelOrRefund\\DC2</t>
-  </si>
-  <si>
     <t>DC2</t>
   </si>
   <si>
     <t>(s)</t>
   </si>
   <si>
-    <t>brandComparison\\value\\cancelOrRefund\\EF2</t>
-  </si>
-  <si>
     <t>EF2</t>
   </si>
   <si>
-    <t>brandComparison\\value\\cancelOrRefund\\EC2</t>
-  </si>
-  <si>
     <t>EC2</t>
+  </si>
+  <si>
+    <t>brandComparison.value.cancelOrRefund.BF2</t>
+  </si>
+  <si>
+    <t>brandComparison.value.cancelOrRefund.BC2</t>
+  </si>
+  <si>
+    <t>brandComparison.value.cancelOrRefund.DF2</t>
+  </si>
+  <si>
+    <t>brandComparison.value.cancelOrRefund.DC2</t>
+  </si>
+  <si>
+    <t>brandComparison.value.cancelOrRefund.EF2</t>
+  </si>
+  <si>
+    <t>brandComparison.value.cancelOrRefund.EC2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,13 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -412,95 +412,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
